--- a/Employee_Reports35/Lemuel Carcellar Macatangay Q0550.xlsx
+++ b/Employee_Reports35/Lemuel Carcellar Macatangay Q0550.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-227</v>
+        <v>-228</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">

--- a/Employee_Reports35/Lemuel Carcellar Macatangay Q0550.xlsx
+++ b/Employee_Reports35/Lemuel Carcellar Macatangay Q0550.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="56" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -543,17 +543,17 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>LOTO (SOPs)</t>
+          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>ELECTRICAL SAFETY</t>
+          <t>CARGO</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>LSME-OHS-SOP-021</t>
+          <t>LSME-CRG-SOP-028</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -563,20 +563,20 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>01-Oct-2024</t>
+          <t>21-Mar-2024</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>01-Oct-2025</t>
+          <t>21-Mar-2025</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-34</v>
+        <v>-229</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -587,102 +587,53 @@
       <c r="K3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-028</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>21-Mar-2024</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>21-Mar-2025</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>-228</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>19-Feb-2025</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>19-Feb-2026</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>107</v>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="H4" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
